--- a/storage/app/utils/Categories.xlsx
+++ b/storage/app/utils/Categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bootsPeru\storage\app\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\Escritorio\boots\bootsPeru\storage\app\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3BB31B-8D97-4CAF-8BE8-27E3B9AF938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1F7D8-FB27-459F-BF0A-02C6B848D770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Id</t>
   </si>
@@ -33,34 +33,10 @@
     <t>Categorias</t>
   </si>
   <si>
-    <t>Accesorios de Oficina</t>
+    <t>Autoradios</t>
   </si>
   <si>
-    <t>Accesorios para Auto</t>
-  </si>
-  <si>
-    <t>Accesorios Gamer</t>
-  </si>
-  <si>
-    <t>Accesorios para celular</t>
-  </si>
-  <si>
-    <t>Accesorios para Laptop</t>
-  </si>
-  <si>
-    <t>Accesorios para Ipad / tablets</t>
-  </si>
-  <si>
-    <t>Accesorios Audio y Video</t>
-  </si>
-  <si>
-    <t>Accesorios Home</t>
-  </si>
-  <si>
-    <t>Accesorios de Reloj</t>
-  </si>
-  <si>
-    <t>Packs</t>
+    <t>Accesorios</t>
   </si>
 </sst>
 </file>
@@ -167,15 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -462,15 +437,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -485,114 +459,66 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>10</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/utils/Categories.xlsx
+++ b/storage/app/utils/Categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\Escritorio\boots\bootsPeru\storage\app\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\venturafinal\ventura\storage\app\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1F7D8-FB27-459F-BF0A-02C6B848D770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5120429-D3E0-499A-B78E-70B8E68E1FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -33,10 +33,28 @@
     <t>Categorias</t>
   </si>
   <si>
-    <t>Autoradios</t>
-  </si>
-  <si>
-    <t>Accesorios</t>
+    <t>Autoradio</t>
+  </si>
+  <si>
+    <t>Camara</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>Timon</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Palanca</t>
+  </si>
+  <si>
+    <t>Pedales</t>
   </si>
 </sst>
 </file>
@@ -437,7 +455,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,34 +499,70 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -522,5 +576,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>